--- a/biology/Botanique/Diplycosia_puradyatmikai/Diplycosia_puradyatmikai.xlsx
+++ b/biology/Botanique/Diplycosia_puradyatmikai/Diplycosia_puradyatmikai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplycosia puradyatmikai est une espèce de plantes à fleurs de la famille des Ericaceae. Cette espèce est originaire de Nouvelle-Guinée. Elle a été découverte en l'an 2018 mais décrite pour la première fois en l'an 2020.
-Selon Plants of the World Online, le nom est un synonyme de Gaultheria puradyatmikae[1].
+Selon Plants of the World Online, le nom est un synonyme de Gaultheria puradyatmikae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de cette espèce fait référence à l'actuel superviseur général de la remise en état et de la surveillance des Highlands à la PT Freeport Indonesia Mining Company, Monsieur Pratita Puradyatmika, qui a un grand intérêt pour la biodiversité du mont Jaya, et a travaillé avec des biologistes pendant de nombreuses années pour entreprendre des inventaires de la biodiversité dans et autour de cette région.
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplycosia puradyatmikai est un arbuste très ramifié atteignant 1,5 m de haut[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplycosia puradyatmikai est un arbuste très ramifié atteignant 1,5 m de haut.
 Les rameaux sont bruns, cylindriques et très robustes et l'écorce est fissuré longitudinalement tout en étant recouvert de poils marron.
-Les limbes sont simples, alternes, très souvent ovales et mesurant de 0,8 à 2,8 cm de longueur sur 0,7 à 2,5 cm de large. Les limbes sont de couleur verte foncée,  légèrement brillantes sur la face supérieur, blanchâtres sur la face inférieure et les 2 faces sont recouvertes de poils soyeux bruns dorés[3]. Le pétiole est rougeâtre et mesurant de 3 à 8 mm.
+Les limbes sont simples, alternes, très souvent ovales et mesurant de 0,8 à 2,8 cm de longueur sur 0,7 à 2,5 cm de large. Les limbes sont de couleur verte foncée,  légèrement brillantes sur la face supérieur, blanchâtres sur la face inférieure et les 2 faces sont recouvertes de poils soyeux bruns dorés. Le pétiole est rougeâtre et mesurant de 3 à 8 mm.
 Les fleurs sont campanulées, de couleur rose à rouge.
 Les fruits sont des baies qui passent du rouge au noir à maturité.
 La floraison et la fructification se font durant toute l'année.
@@ -579,9 +595,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplycosia puradyatmikai a été découverte sur l'île de Nouvelle-Guinée, plus précisément en Papouasie occidentale, sur les pentes du mont Jaya[4] qui est le plus grand sommet d'Asie du sud-est. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplycosia puradyatmikai a été découverte sur l'île de Nouvelle-Guinée, plus précisément en Papouasie occidentale, sur les pentes du mont Jaya qui est le plus grand sommet d'Asie du sud-est. 
 Cette espèce est classée en danger critique d'extinction selon l'UICN, étant donnée la très faible aire de répartition de cet arbuste et à cause des activités humaines.
 </t>
         </is>
